--- a/data/Test Execution.xlsx
+++ b/data/Test Execution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duraipandi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD676D1-6C42-474A-90CD-42E27D776CF9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95713F0E-8B7D-4302-8618-8BC17E17634E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="11565" xr2:uid="{4ADAB28C-3A55-41DE-93CE-6C297A0BD2CB}"/>
   </bookViews>
@@ -30,20 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Execute</t>
   </si>
   <si>
-    <t>TC001_Test Navigation to BSTL screen</t>
-  </si>
-  <si>
     <t xml:space="preserve">This Testcase helps to verify the system successfully </t>
   </si>
   <si>
-    <t>TC002_Verify Default cursor focus in FROM Date field</t>
-  </si>
-  <si>
     <t>Verify whether the cursor focus in FROM Date field of Filter section</t>
   </si>
   <si>
@@ -63,6 +57,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>VerifyLogin</t>
+  </si>
+  <si>
+    <t>verifyCURSORfocus_SET</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A0E506-77C0-41C9-8B26-7CF926A53627}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,33 +467,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -498,188 +501,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
